--- a/biology/Médecine/Syndrome_méningé/Syndrome_méningé.xlsx
+++ b/biology/Médecine/Syndrome_méningé/Syndrome_méningé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_m%C3%A9ning%C3%A9</t>
+          <t>Syndrome_méningé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome méningé est caractérisé par une raideur de la nuque, des céphalées intenses et une sensibilité accrue aux stimulations fortes avec parfois des vomissements. Ce syndrome résulte d'une inflammation des méninges, en particulier de la dure-mère ou de l'arachnoïde. Les causes peuvent être multiples : méningite virale ou bactérienne, hémorragie méningée... L'anglicisme « méningisme », souvent utilisé au Québec, est un syndrome méningé fébrile se présentant avec une ponction lombaire normale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_m%C3%A9ning%C3%A9</t>
+          <t>Syndrome_méningé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome méningé présente trois principaux symptômes, regroupés sous le terme de « triade méningée » ou « trépied méningitique », que sont :
 Les céphalées intenses ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_m%C3%A9ning%C3%A9</t>
+          <t>Syndrome_méningé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bilan étiologique recherchera une infection méningée à pneumocoque, méningocoque, Listeria monocytogenes ou Haemophilus influenzae généralement confirmée par l'analyse bactériologique réalisée au laboratoire après un prélèvement de liquide cérébro-spinal (LCS). Une ponction lombaire découvre en cas d'infection bactérienne, un LCS généralement trouble.
 Les méningites virales laissent un LCS limpide, elles ont pour origine dans la majorité des cas, un Entérovirus (Poliovirus, Coxsackie virus, Echovirus) mais également les virus d'herpès.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_m%C3%A9ning%C3%A9</t>
+          <t>Syndrome_méningé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Migraine : céphalée aiguë et photophobie
 Hypertension intracrânienne : céphalées calmées par les vomissements</t>
